--- a/outputs/spreadsheets/patient_data.xlsx
+++ b/outputs/spreadsheets/patient_data.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -456,7 +456,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
@@ -505,7 +505,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>patient_2324</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>13/06/2025, 15:10</t>
+          <t>26/08/2025, 14:59</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2025-06-13_15-10_-00</t>
+          <t>2025-08-26_14-59_1810</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-06-13_15-10_-00\depth.jpeg</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_14-59_1810\depth.jpeg</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
@@ -538,7 +538,7 @@
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>patient_2324</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025, 15:10</t>
+          <t>26/08/2025, 14:59</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>2025-06-13_15-10_-00</t>
+          <t>2025-08-26_14-59_1810</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -563,19 +563,19 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-06-13_15-10_-00\depth_data.npy</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_14-59_1810\depth_data.npy</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Volume: 0.0 cm³</t>
+          <t>Volume: 768.94 cm³</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>patient_2324</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13/06/2025, 15:10</t>
+          <t>26/08/2025, 14:59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2025-06-13_15-10_-00</t>
+          <t>2025-08-26_14-59_1810</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-06-13_15-10_-00\image.jpeg</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_14-59_1810\image.jpeg</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
@@ -608,7 +608,7 @@
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>patient_2324</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025, 15:10</t>
+          <t>26/08/2025, 14:59</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>2025-06-13_15-10_-00</t>
+          <t>2025-08-26_14-59_1810</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -633,34 +633,34 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-06-13_15-10_-00\weight.txt</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_14-59_1810\weight.txt</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Weight: -0.0 g</t>
+          <t>Weight: 181.0 g</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>patient_4322</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>after</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13/06/2025, 14:39</t>
+          <t>26/08/2025, 15:20</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2025-06-13_14-39_4940</t>
+          <t>2025-08-26_15-20_1810</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-39_4940\depth.jpeg</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_15-20_1810\depth.jpeg</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
@@ -678,22 +678,22 @@
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>patient_4322</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>after</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025, 14:39</t>
+          <t>26/08/2025, 15:20</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>2025-06-13_14-39_4940</t>
+          <t>2025-08-26_15-20_1810</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -703,34 +703,34 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-39_4940\depth_data.npy</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_15-20_1810\depth_data.npy</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Volume: 345.77 cm³</t>
+          <t>Volume: 756.76 cm³</t>
         </is>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>patient_4322</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>after</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13/06/2025, 14:39</t>
+          <t>26/08/2025, 15:20</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2025-06-13_14-39_4940</t>
+          <t>2025-08-26_15-20_1810</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-39_4940\image.jpeg</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_15-20_1810\image.jpeg</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
@@ -748,22 +748,22 @@
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>patient_4322</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>after</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025, 14:39</t>
+          <t>26/08/2025, 15:20</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>2025-06-13_14-39_4940</t>
+          <t>2025-08-26_15-20_1810</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -773,34 +773,34 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-39_4940\weight.txt</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_15-20_1810\weight.txt</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Weight: 494.0 g</t>
+          <t>Weight: 181.0 g</t>
         </is>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>patient_4322</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>before</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13/06/2025, 14:43</t>
+          <t>26/08/2025, 15:22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2025-06-13_14-43_4650</t>
+          <t>2025-08-26_15-22_700</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-43_4650\depth.jpeg</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_15-22_700\depth.jpeg</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
@@ -818,22 +818,22 @@
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>patient_4322</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>before</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025, 14:43</t>
+          <t>26/08/2025, 15:22</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>2025-06-13_14-43_4650</t>
+          <t>2025-08-26_15-22_700</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -843,34 +843,34 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-43_4650\depth_data.npy</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_15-22_700\depth_data.npy</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>Volume: 289.49 cm³</t>
+          <t>Volume: 747.96 cm³</t>
         </is>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>patient_4322</t>
+          <t>patient_1236789010</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>before</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13/06/2025, 14:43</t>
+          <t>26/08/2025, 15:22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2025-06-13_14-43_4650</t>
+          <t>2025-08-26_15-22_700</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-43_4650\image.jpeg</t>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_15-22_700\image.jpeg</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
@@ -888,35 +888,5075 @@
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
+          <t>patient_1236789010</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:22</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-22_700</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_1236789010\2025-08-26_15-22_700\weight.txt</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 70.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13/06/2025, 15:10</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-13_15-10_-00</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-06-13_15-10_-00\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>13/06/2025, 15:10</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-13_15-10_-00</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-06-13_15-10_-00\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 0.0 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13/06/2025, 15:10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-13_15-10_-00</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-06-13_15-10_-00\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>13/06/2025, 15:10</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-13_15-10_-00</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-06-13_15-10_-00\weight.txt</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Weight: -0.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 11:54</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_11-54_-70</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-08-26_11-54_-70\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 11:54</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_11-54_-70</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-08-26_11-54_-70\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 780.26 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 11:54</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_11-54_-70</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-08-26_11-54_-70\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 11:54</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_11-54_-70</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-08-26_11-54_-70\weight.txt</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Weight: -7.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 10:44</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_10-44_3000</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_10-44_3000\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 10:44</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_10-44_3000</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_10-44_3000\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 822.49 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 10:44</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_10-44_3000</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_10-44_3000\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 10:44</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_10-44_3000</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_10-44_3000\weight.txt</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 300.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:07</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-07_2650</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-07_2650\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:07</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-07_2650</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-07_2650\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 880.2 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:07</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-07_2650</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-07_2650\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:07</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-07_2650</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-07_2650\weight.txt</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 265.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:07</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-07_3210</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-07_3210\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:07</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-07_3210</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-07_3210\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 887.87 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:07</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-07_3210</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-07_3210\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:07</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-07_3210</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-07_3210\weight.txt</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 321.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:08</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-08_3840</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-08_3840\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:08</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-08_3840</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-08_3840\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 893.52 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:08</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-08_3840</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-08_3840\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:08</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-08_3840</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-08_3840\weight.txt</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 384.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:09</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-09_3640</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-09_3640\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:09</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-09_3640</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-09_3640\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 876.23 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:09</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-09_3640</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-09_3640\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:09</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-09_3640</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-09_3640\weight.txt</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 364.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:10</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-10_2990</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-10_2990\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:10</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-10_2990</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-10_2990\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 876.72 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:10</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-10_2990</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-10_2990\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:10</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-10_2990</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-10_2990\weight.txt</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 299.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:10</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-10_3510</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-10_3510\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47" ht="20" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:10</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-10_3510</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-10_3510\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 859.87 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:10</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-10_3510</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-10_3510\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49" ht="20" customHeight="1">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:10</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-10_3510</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-10_3510\weight.txt</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 351.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:12</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-12_2760</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-12_2760\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:12</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-12_2760</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-12_2760\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 865.48 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:12</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-12_2760</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-12_2760\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:12</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-12_2760</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-12_2760\weight.txt</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 276.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:12</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-12_3080</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-12_3080\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:12</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-12_3080</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-12_3080\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 875.9 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:12</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-12_3080</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-12_3080\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:12</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-12_3080</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-12_3080\weight.txt</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 308.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:13</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-13_5140</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-13_5140\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59" ht="20" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:13</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-13_5140</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-13_5140\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 872.75 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:13</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-13_5140</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-13_5140\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61" ht="20" customHeight="1">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:13</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-13_5140</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-13_5140\weight.txt</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 514.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3150</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3150\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63" ht="20" customHeight="1">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3150</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3150\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 860.72 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3150</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3150\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65" ht="20" customHeight="1">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3150</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3150\weight.txt</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 315.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3450</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3450\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3450</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3450\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 869.64 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3450</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3450\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69" ht="20" customHeight="1">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3450</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3450\weight.txt</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 345.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3150</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3150\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71" ht="20" customHeight="1">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3150</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3150\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 860.72 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3150</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3150\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73" ht="20" customHeight="1">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:15</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-15_3150</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-15_3150\weight.txt</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 315.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:16</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-16_8210</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-16_8210\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75" ht="20" customHeight="1">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:16</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-16_8210</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-16_8210\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 872.79 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:16</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-16_8210</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-16_8210\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77" ht="20" customHeight="1">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:16</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-16_8210</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-16_8210\weight.txt</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 821.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:17</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-17_7650</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-17_7650\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79" ht="20" customHeight="1">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:17</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-17_7650</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-17_7650\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 871.71 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:17</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-17_7650</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-17_7650\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81" ht="20" customHeight="1">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:17</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-17_7650</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-17_7650\weight.txt</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 765.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:18</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-18_6500</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-18_6500\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83" ht="20" customHeight="1">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:18</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-18_6500</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-18_6500\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 868.21 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="20" customHeight="1">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:18</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-18_6500</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-18_6500\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85" ht="20" customHeight="1">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:18</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-18_6500</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-18_6500\weight.txt</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 650.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="20" customHeight="1">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:18</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-18_7020</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-18_7020\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87" ht="20" customHeight="1">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:18</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-18_7020</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-18_7020\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 882.34 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="20" customHeight="1">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:18</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-18_7020</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-18_7020\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89" ht="20" customHeight="1">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:18</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-18_7020</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-18_7020\weight.txt</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 702.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="20" customHeight="1">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:19</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-19_3960</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-19_3960\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91" ht="20" customHeight="1">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:19</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-19_3960</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-19_3960\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 879.52 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="20" customHeight="1">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:19</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-19_3960</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-19_3960\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93" ht="20" customHeight="1">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:19</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-19_3960</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-19_3960\weight.txt</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 396.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="20" customHeight="1">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:20</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-20_3600</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-20_3600\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95" ht="20" customHeight="1">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:20</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-20_3600</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-20_3600\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 870.76 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="20" customHeight="1">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:20</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-20_3600</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-20_3600\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr"/>
+    </row>
+    <row r="97" ht="20" customHeight="1">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:20</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-20_3600</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-20_3600\weight.txt</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 360.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="20" customHeight="1">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:21</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-21_8330</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-21_8330\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99" ht="20" customHeight="1">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:21</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-21_8330</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-21_8330\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 892.38 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="20" customHeight="1">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:21</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-21_8330</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-21_8330\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101" ht="20" customHeight="1">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:21</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-21_8330</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-21_8330\weight.txt</t>
+        </is>
+      </c>
+      <c r="G101" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 833.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="20" customHeight="1">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:21</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-21_8500</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-21_8500\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103" ht="20" customHeight="1">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:21</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-21_8500</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-21_8500\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G103" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 894.15 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="20" customHeight="1">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:21</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-21_8500</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-21_8500\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105" ht="20" customHeight="1">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 13:21</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_13-21_8500</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_13-21_8500\weight.txt</t>
+        </is>
+      </c>
+      <c r="G105" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 850.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="20" customHeight="1">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:07</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-07_3640</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-07_3640\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107" ht="20" customHeight="1">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:07</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-07_3640</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-07_3640\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G107" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 885.66 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="20" customHeight="1">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:07</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-07_3640</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-07_3640\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr"/>
+    </row>
+    <row r="109" ht="20" customHeight="1">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:07</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-07_3640</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-07_3640\weight.txt</t>
+        </is>
+      </c>
+      <c r="G109" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 364.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="20" customHeight="1">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:16</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-16_4340</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-16_4340\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr"/>
+    </row>
+    <row r="111" ht="20" customHeight="1">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:16</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-16_4340</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F111" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-16_4340\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G111" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 885.97 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="20" customHeight="1">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:16</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-16_4340</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-16_4340\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113" ht="20" customHeight="1">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:16</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-16_4340</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-16_4340\weight.txt</t>
+        </is>
+      </c>
+      <c r="G113" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 434.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="20" customHeight="1">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:17</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-17_4350</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-17_4350\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr"/>
+    </row>
+    <row r="115" ht="20" customHeight="1">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:17</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-17_4350</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-17_4350\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 876.43 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="20" customHeight="1">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:17</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-17_4350</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-17_4350\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117" ht="20" customHeight="1">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>patient_2324</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>03/09/2025, 14:17</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>2025-09-03_14-17_4350</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_2324\2025-09-03_14-17_4350\weight.txt</t>
+        </is>
+      </c>
+      <c r="G117" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 435.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="20" customHeight="1">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:15</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-15_-30</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-15_-30\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119" ht="20" customHeight="1">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:15</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-15_-30</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-15_-30\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 791.96 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="20" customHeight="1">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:15</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-15_-30</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-15_-30\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121" ht="20" customHeight="1">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:15</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-15_-30</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-15_-30\weight.txt</t>
+        </is>
+      </c>
+      <c r="G121" s="3" t="inlineStr">
+        <is>
+          <t>Weight: -3.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="20" customHeight="1">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:15</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-15_150</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-15_150\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123" ht="20" customHeight="1">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:15</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-15_150</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-15_150\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G123" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 786.73 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="20" customHeight="1">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:15</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-15_150</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-15_150\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="inlineStr"/>
+    </row>
+    <row r="125" ht="20" customHeight="1">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:15</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-15_150</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-15_150\weight.txt</t>
+        </is>
+      </c>
+      <c r="G125" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 15.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="20" customHeight="1">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:23</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-23_1960</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-23_1960\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127" ht="20" customHeight="1">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:23</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-23_1960</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-23_1960\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G127" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 762.82 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="20" customHeight="1">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:23</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-23_1960</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-23_1960\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr"/>
+    </row>
+    <row r="129" ht="20" customHeight="1">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:23</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-23_1960</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F129" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-23_1960\weight.txt</t>
+        </is>
+      </c>
+      <c r="G129" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 196.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="20" customHeight="1">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:23</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-23_910</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-23_910\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131" ht="20" customHeight="1">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:23</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-23_910</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-23_910\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G131" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 761.11 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="20" customHeight="1">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:23</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-23_910</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-23_910\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133" ht="20" customHeight="1">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:23</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-23_910</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F133" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_12-23_910\weight.txt</t>
+        </is>
+      </c>
+      <c r="G133" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 91.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="20" customHeight="1">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:23</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-23_710</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_15-23_710\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135" ht="20" customHeight="1">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:23</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-23_710</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_15-23_710\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G135" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 743.45 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="20" customHeight="1">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:23</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-23_710</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_15-23_710\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="inlineStr"/>
+    </row>
+    <row r="137" ht="20" customHeight="1">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:23</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-23_710</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_15-23_710\weight.txt</t>
+        </is>
+      </c>
+      <c r="G137" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 71.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="20" customHeight="1">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:24</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-24_530</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_15-24_530\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="inlineStr"/>
+    </row>
+    <row r="139" ht="20" customHeight="1">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:24</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-24_530</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_15-24_530\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G139" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 750.07 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="20" customHeight="1">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:24</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-24_530</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_15-24_530\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="inlineStr"/>
+    </row>
+    <row r="141" ht="20" customHeight="1">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>patient_3409782309</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 15:24</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_15-24_530</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F141" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3409782309\2025-08-26_15-24_530\weight.txt</t>
+        </is>
+      </c>
+      <c r="G141" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 53.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="20" customHeight="1">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>patient_3430210101</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 11:58</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_11-58_00</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3430210101\2025-08-26_11-58_00\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143" ht="20" customHeight="1">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>patient_3430210101</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 11:58</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_11-58_00</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3430210101\2025-08-26_11-58_00\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G143" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 790.95 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="20" customHeight="1">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>patient_3430210101</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 11:58</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_11-58_00</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3430210101\2025-08-26_11-58_00\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145" ht="20" customHeight="1">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>patient_3430210101</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 11:58</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_11-58_00</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F145" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3430210101\2025-08-26_11-58_00\weight.txt</t>
+        </is>
+      </c>
+      <c r="G145" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 0.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="20" customHeight="1">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>patient_3430210101</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:13</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-13_190</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3430210101\2025-08-26_12-13_190\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147" ht="20" customHeight="1">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>patient_3430210101</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:13</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-13_190</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3430210101\2025-08-26_12-13_190\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G147" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 794.88 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="20" customHeight="1">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>patient_3430210101</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:13</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-13_190</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3430210101\2025-08-26_12-13_190\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149" ht="20" customHeight="1">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>patient_3430210101</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>26/08/2025, 12:13</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26_12-13_190</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F149" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_3430210101\2025-08-26_12-13_190\weight.txt</t>
+        </is>
+      </c>
+      <c r="G149" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 19.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="20" customHeight="1">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
           <t>patient_4322</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>13/06/2025, 14:39</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-13_14-39_4940</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-39_4940\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151" ht="20" customHeight="1">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>patient_4322</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>13/06/2025, 14:39</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-13_14-39_4940</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-39_4940\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G151" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 345.77 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="20" customHeight="1">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>patient_4322</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>13/06/2025, 14:39</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-13_14-39_4940</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-39_4940\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153" ht="20" customHeight="1">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>patient_4322</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>13/06/2025, 14:39</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-13_14-39_4940</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>weight.txt</t>
+        </is>
+      </c>
+      <c r="F153" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-39_4940\weight.txt</t>
+        </is>
+      </c>
+      <c r="G153" s="3" t="inlineStr">
+        <is>
+          <t>Weight: 494.0 g</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="20" customHeight="1">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>patient_4322</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>13/06/2025, 14:43</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D154" s="2" t="inlineStr">
         <is>
           <t>2025-06-13_14-43_4650</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>depth.jpeg</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-43_4650\depth.jpeg</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="inlineStr"/>
+    </row>
+    <row r="155" ht="20" customHeight="1">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>patient_4322</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>13/06/2025, 14:43</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-13_14-43_4650</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>depth_data.npy</t>
+        </is>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-43_4650\depth_data.npy</t>
+        </is>
+      </c>
+      <c r="G155" s="3" t="inlineStr">
+        <is>
+          <t>Volume: 289.49 cm³</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="20" customHeight="1">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>patient_4322</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>13/06/2025, 14:43</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>2025-06-13_14-43_4650</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>image.jpeg</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-43_4650\image.jpeg</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157" ht="20" customHeight="1">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>patient_4322</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>13/06/2025, 14:43</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-13_14-43_4650</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
         <is>
           <t>weight.txt</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F157" s="3" t="inlineStr">
         <is>
           <t>C:\Users\olive\1INTERNSHIP\Food_Image_Work\ward-food-ui\data\processed\patient_4322\2025-06-13_14-43_4650\weight.txt</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G157" s="3" t="inlineStr">
         <is>
           <t>Weight: 465.0 g</t>
         </is>
